--- a/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann .xlsx
+++ b/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann .xlsx
@@ -408,13 +408,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C2" t="str">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C4" t="str">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="str">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C5" t="str">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C6" t="str">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>

--- a/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann .xlsx
+++ b/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann .xlsx
@@ -428,10 +428,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C3" t="str">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="str">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
@@ -448,13 +448,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C4" t="str">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="str">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C5" t="str">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="str">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" t="str">
         <v>1</v>
@@ -488,13 +488,13 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C6" t="str">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="str">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
